--- a/programas/Projects/6_regresionLineal/logMPC.xlsx
+++ b/programas/Projects/6_regresionLineal/logMPC.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1537"/>
+  <dimension ref="A1:J1603"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46600,6 +46600,1990 @@
         <v>96.63379985158764</v>
       </c>
     </row>
+    <row r="1538">
+      <c r="A1538" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-22</t>
+        </is>
+      </c>
+      <c r="B1538" t="inlineStr">
+        <is>
+          <t>2022-06-22</t>
+        </is>
+      </c>
+      <c r="C1538" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1538" t="n">
+        <v>89.05999755859375</v>
+      </c>
+      <c r="E1538" t="inlineStr"/>
+      <c r="F1538" t="inlineStr"/>
+      <c r="G1538" t="inlineStr"/>
+      <c r="H1538" t="n">
+        <v>-0.02517516458397673</v>
+      </c>
+      <c r="I1538" t="n">
+        <v>-0.02517516458397673</v>
+      </c>
+      <c r="J1538" t="n">
+        <v>94.20102803594885</v>
+      </c>
+    </row>
+    <row r="1539">
+      <c r="A1539" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="B1539" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="C1539" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1539" t="n">
+        <v>84.62999725341797</v>
+      </c>
+      <c r="E1539" t="inlineStr"/>
+      <c r="F1539" t="inlineStr"/>
+      <c r="G1539" t="inlineStr"/>
+      <c r="H1539" t="n">
+        <v>-0.04974175192696617</v>
+      </c>
+      <c r="I1539" t="n">
+        <v>-0.04974175192696617</v>
+      </c>
+      <c r="J1539" t="n">
+        <v>89.5153038681195</v>
+      </c>
+    </row>
+    <row r="1540">
+      <c r="A1540" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-24</t>
+        </is>
+      </c>
+      <c r="B1540" t="inlineStr">
+        <is>
+          <t>2022-06-24</t>
+        </is>
+      </c>
+      <c r="C1540" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1540" t="n">
+        <v>85.68000030517578</v>
+      </c>
+      <c r="E1540" t="inlineStr"/>
+      <c r="F1540" t="inlineStr"/>
+      <c r="G1540" t="inlineStr"/>
+      <c r="H1540" t="n">
+        <v>0.01240698435347531</v>
+      </c>
+      <c r="I1540" t="n">
+        <v>0.01240698435347531</v>
+      </c>
+      <c r="J1540" t="n">
+        <v>90.62591884260785</v>
+      </c>
+    </row>
+    <row r="1541">
+      <c r="A1541" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-27</t>
+        </is>
+      </c>
+      <c r="B1541" t="inlineStr">
+        <is>
+          <t>2022-06-27</t>
+        </is>
+      </c>
+      <c r="C1541" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1541" t="n">
+        <v>87.94000244140625</v>
+      </c>
+      <c r="E1541" t="inlineStr"/>
+      <c r="F1541" t="inlineStr"/>
+      <c r="G1541" t="inlineStr"/>
+      <c r="H1541" t="n">
+        <v>0.02637724239239936</v>
+      </c>
+      <c r="I1541" t="n">
+        <v>0.02637724239239936</v>
+      </c>
+      <c r="J1541" t="n">
+        <v>93.01638067095323</v>
+      </c>
+    </row>
+    <row r="1542">
+      <c r="A1542" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-28</t>
+        </is>
+      </c>
+      <c r="B1542" t="inlineStr">
+        <is>
+          <t>2022-06-28</t>
+        </is>
+      </c>
+      <c r="C1542" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1542" t="n">
+        <v>88.69000244140625</v>
+      </c>
+      <c r="E1542" t="inlineStr"/>
+      <c r="F1542" t="inlineStr"/>
+      <c r="G1542" t="inlineStr"/>
+      <c r="H1542" t="n">
+        <v>0.008528541951084323</v>
+      </c>
+      <c r="I1542" t="n">
+        <v>0.008528541951084323</v>
+      </c>
+      <c r="J1542" t="n">
+        <v>93.80967477564349</v>
+      </c>
+    </row>
+    <row r="1543">
+      <c r="A1543" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-29</t>
+        </is>
+      </c>
+      <c r="B1543" t="inlineStr">
+        <is>
+          <t>2022-06-29</t>
+        </is>
+      </c>
+      <c r="C1543" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1543" t="n">
+        <v>84.48000335693359</v>
+      </c>
+      <c r="E1543" t="inlineStr"/>
+      <c r="F1543" t="inlineStr"/>
+      <c r="G1543" t="inlineStr"/>
+      <c r="H1543" t="n">
+        <v>-0.04746869961193234</v>
+      </c>
+      <c r="I1543" t="n">
+        <v>-0.04746869961193234</v>
+      </c>
+      <c r="J1543" t="n">
+        <v>89.3566515030254</v>
+      </c>
+    </row>
+    <row r="1544">
+      <c r="A1544" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-30</t>
+        </is>
+      </c>
+      <c r="B1544" t="inlineStr">
+        <is>
+          <t>2022-06-30</t>
+        </is>
+      </c>
+      <c r="C1544" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1544" t="n">
+        <v>82.20999908447266</v>
+      </c>
+      <c r="E1544" t="inlineStr"/>
+      <c r="F1544" t="inlineStr"/>
+      <c r="G1544" t="inlineStr"/>
+      <c r="H1544" t="n">
+        <v>-0.02687031465742273</v>
+      </c>
+      <c r="I1544" t="n">
+        <v>-0.02687031465742273</v>
+      </c>
+      <c r="J1544" t="n">
+        <v>86.95561016040544</v>
+      </c>
+    </row>
+    <row r="1545">
+      <c r="A1545" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-01</t>
+        </is>
+      </c>
+      <c r="B1545" t="inlineStr">
+        <is>
+          <t>2022-07-01</t>
+        </is>
+      </c>
+      <c r="C1545" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1545" t="n">
+        <v>84.48000335693359</v>
+      </c>
+      <c r="E1545" t="inlineStr"/>
+      <c r="F1545" t="inlineStr"/>
+      <c r="G1545" t="inlineStr"/>
+      <c r="H1545" t="n">
+        <v>0.02761226490379176</v>
+      </c>
+      <c r="I1545" t="n">
+        <v>0.02761226490379176</v>
+      </c>
+      <c r="J1545" t="n">
+        <v>89.3566515030254</v>
+      </c>
+    </row>
+    <row r="1546">
+      <c r="A1546" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-05</t>
+        </is>
+      </c>
+      <c r="B1546" t="inlineStr">
+        <is>
+          <t>2022-07-05</t>
+        </is>
+      </c>
+      <c r="C1546" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1546" t="n">
+        <v>81.73999786376953</v>
+      </c>
+      <c r="E1546" t="inlineStr"/>
+      <c r="F1546" t="inlineStr"/>
+      <c r="G1546" t="inlineStr"/>
+      <c r="H1546" t="n">
+        <v>-0.03243377585565854</v>
+      </c>
+      <c r="I1546" t="n">
+        <v>-0.03243377585565854</v>
+      </c>
+      <c r="J1546" t="n">
+        <v>86.45847789696408</v>
+      </c>
+    </row>
+    <row r="1547">
+      <c r="A1547" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-06</t>
+        </is>
+      </c>
+      <c r="B1547" t="inlineStr">
+        <is>
+          <t>2022-07-06</t>
+        </is>
+      </c>
+      <c r="C1547" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1547" t="n">
+        <v>79.30999755859375</v>
+      </c>
+      <c r="E1547" t="inlineStr"/>
+      <c r="F1547" t="inlineStr"/>
+      <c r="G1547" t="inlineStr"/>
+      <c r="H1547" t="n">
+        <v>-0.02972841165503448</v>
+      </c>
+      <c r="I1547" t="n">
+        <v>-0.02972841165503448</v>
+      </c>
+      <c r="J1547" t="n">
+        <v>83.88820467497543</v>
+      </c>
+    </row>
+    <row r="1548">
+      <c r="A1548" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-07</t>
+        </is>
+      </c>
+      <c r="B1548" t="inlineStr">
+        <is>
+          <t>2022-07-07</t>
+        </is>
+      </c>
+      <c r="C1548" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1548" t="n">
+        <v>83.43000030517578</v>
+      </c>
+      <c r="E1548" t="inlineStr"/>
+      <c r="F1548" t="inlineStr"/>
+      <c r="G1548" t="inlineStr"/>
+      <c r="H1548" t="n">
+        <v>0.05194808817814178</v>
+      </c>
+      <c r="I1548" t="n">
+        <v>0.05194808817814178</v>
+      </c>
+      <c r="J1548" t="n">
+        <v>88.24603652853706</v>
+      </c>
+    </row>
+    <row r="1549">
+      <c r="A1549" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-08</t>
+        </is>
+      </c>
+      <c r="B1549" t="inlineStr">
+        <is>
+          <t>2022-07-08</t>
+        </is>
+      </c>
+      <c r="C1549" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1549" t="n">
+        <v>83.26999664306641</v>
+      </c>
+      <c r="E1549" t="inlineStr"/>
+      <c r="F1549" t="inlineStr"/>
+      <c r="G1549" t="inlineStr"/>
+      <c r="H1549" t="n">
+        <v>-0.001917819267938436</v>
+      </c>
+      <c r="I1549" t="n">
+        <v>-0.001917819267938436</v>
+      </c>
+      <c r="J1549" t="n">
+        <v>88.07679657936343</v>
+      </c>
+    </row>
+    <row r="1550">
+      <c r="A1550" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-11</t>
+        </is>
+      </c>
+      <c r="B1550" t="inlineStr">
+        <is>
+          <t>2022-07-11</t>
+        </is>
+      </c>
+      <c r="C1550" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1550" t="n">
+        <v>83.62999725341797</v>
+      </c>
+      <c r="E1550" t="inlineStr"/>
+      <c r="F1550" t="inlineStr"/>
+      <c r="G1550" t="inlineStr"/>
+      <c r="H1550" t="n">
+        <v>0.004323293201207834</v>
+      </c>
+      <c r="I1550" t="n">
+        <v>0.004323293201207834</v>
+      </c>
+      <c r="J1550" t="n">
+        <v>88.45757839519916</v>
+      </c>
+    </row>
+    <row r="1551">
+      <c r="A1551" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-12</t>
+        </is>
+      </c>
+      <c r="B1551" t="inlineStr">
+        <is>
+          <t>2022-07-12</t>
+        </is>
+      </c>
+      <c r="C1551" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1551" t="n">
+        <v>82.75</v>
+      </c>
+      <c r="E1551" t="inlineStr"/>
+      <c r="F1551" t="inlineStr"/>
+      <c r="G1551" t="inlineStr"/>
+      <c r="H1551" t="n">
+        <v>-0.01052250726197412</v>
+      </c>
+      <c r="I1551" t="n">
+        <v>-0.01052250726197412</v>
+      </c>
+      <c r="J1551" t="n">
+        <v>87.52678288415903</v>
+      </c>
+    </row>
+    <row r="1552">
+      <c r="A1552" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-13</t>
+        </is>
+      </c>
+      <c r="B1552" t="inlineStr">
+        <is>
+          <t>2022-07-13</t>
+        </is>
+      </c>
+      <c r="C1552" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1552" t="n">
+        <v>81.94000244140625</v>
+      </c>
+      <c r="E1552" t="inlineStr"/>
+      <c r="F1552" t="inlineStr"/>
+      <c r="G1552" t="inlineStr"/>
+      <c r="H1552" t="n">
+        <v>-0.009788490134063466</v>
+      </c>
+      <c r="I1552" t="n">
+        <v>-0.009788490134063466</v>
+      </c>
+      <c r="J1552" t="n">
+        <v>86.67002783343113</v>
+      </c>
+    </row>
+    <row r="1553">
+      <c r="A1553" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-14</t>
+        </is>
+      </c>
+      <c r="B1553" t="inlineStr">
+        <is>
+          <t>2022-07-14</t>
+        </is>
+      </c>
+      <c r="C1553" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1553" t="n">
+        <v>80.68000030517578</v>
+      </c>
+      <c r="E1553" t="inlineStr"/>
+      <c r="F1553" t="inlineStr"/>
+      <c r="G1553" t="inlineStr"/>
+      <c r="H1553" t="n">
+        <v>-0.01537713081143088</v>
+      </c>
+      <c r="I1553" t="n">
+        <v>-0.01537713081143088</v>
+      </c>
+      <c r="J1553" t="n">
+        <v>85.33729147800611</v>
+      </c>
+    </row>
+    <row r="1554">
+      <c r="A1554" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-15</t>
+        </is>
+      </c>
+      <c r="B1554" t="inlineStr">
+        <is>
+          <t>2022-07-15</t>
+        </is>
+      </c>
+      <c r="C1554" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1554" t="n">
+        <v>84.41999816894531</v>
+      </c>
+      <c r="E1554" t="inlineStr"/>
+      <c r="F1554" t="inlineStr"/>
+      <c r="G1554" t="inlineStr"/>
+      <c r="H1554" t="n">
+        <v>0.0463559475659745</v>
+      </c>
+      <c r="I1554" t="n">
+        <v>0.0463559475659745</v>
+      </c>
+      <c r="J1554" t="n">
+        <v>89.29318248718285</v>
+      </c>
+    </row>
+    <row r="1555">
+      <c r="A1555" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-18</t>
+        </is>
+      </c>
+      <c r="B1555" t="inlineStr">
+        <is>
+          <t>2022-07-18</t>
+        </is>
+      </c>
+      <c r="C1555" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1555" t="n">
+        <v>85.23000335693359</v>
+      </c>
+      <c r="E1555" t="inlineStr"/>
+      <c r="F1555" t="inlineStr"/>
+      <c r="G1555" t="inlineStr"/>
+      <c r="H1555" t="n">
+        <v>0.009594944391816407</v>
+      </c>
+      <c r="I1555" t="n">
+        <v>0.009594944391816407</v>
+      </c>
+      <c r="J1555" t="n">
+        <v>90.14994560771568</v>
+      </c>
+    </row>
+    <row r="1556">
+      <c r="A1556" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-19</t>
+        </is>
+      </c>
+      <c r="B1556" t="inlineStr">
+        <is>
+          <t>2022-07-19</t>
+        </is>
+      </c>
+      <c r="C1556" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1556" t="n">
+        <v>87.84999847412109</v>
+      </c>
+      <c r="E1556" t="inlineStr"/>
+      <c r="F1556" t="inlineStr"/>
+      <c r="G1556" t="inlineStr"/>
+      <c r="H1556" t="n">
+        <v>0.03074029114155086</v>
+      </c>
+      <c r="I1556" t="n">
+        <v>0.03074029114155086</v>
+      </c>
+      <c r="J1556" t="n">
+        <v>92.92118118209183</v>
+      </c>
+    </row>
+    <row r="1557">
+      <c r="A1557" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-20</t>
+        </is>
+      </c>
+      <c r="B1557" t="inlineStr">
+        <is>
+          <t>2022-07-20</t>
+        </is>
+      </c>
+      <c r="C1557" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1557" t="n">
+        <v>88.79000091552734</v>
+      </c>
+      <c r="E1557" t="inlineStr"/>
+      <c r="F1557" t="inlineStr"/>
+      <c r="G1557" t="inlineStr"/>
+      <c r="H1557" t="n">
+        <v>0.01070008489167074</v>
+      </c>
+      <c r="I1557" t="n">
+        <v>0.01070008489167074</v>
+      </c>
+      <c r="J1557" t="n">
+        <v>93.91544570897453</v>
+      </c>
+    </row>
+    <row r="1558">
+      <c r="A1558" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-21</t>
+        </is>
+      </c>
+      <c r="B1558" t="inlineStr">
+        <is>
+          <t>2022-07-21</t>
+        </is>
+      </c>
+      <c r="C1558" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1558" t="n">
+        <v>86.44999694824219</v>
+      </c>
+      <c r="E1558" t="inlineStr"/>
+      <c r="F1558" t="inlineStr"/>
+      <c r="G1558" t="inlineStr"/>
+      <c r="H1558" t="n">
+        <v>-0.02635436359001031</v>
+      </c>
+      <c r="I1558" t="n">
+        <v>-0.02635436359001031</v>
+      </c>
+      <c r="J1558" t="n">
+        <v>91.44036390604235</v>
+      </c>
+    </row>
+    <row r="1559">
+      <c r="A1559" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-22</t>
+        </is>
+      </c>
+      <c r="B1559" t="inlineStr">
+        <is>
+          <t>2022-07-22</t>
+        </is>
+      </c>
+      <c r="C1559" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1559" t="n">
+        <v>85.65000152587891</v>
+      </c>
+      <c r="E1559" t="inlineStr"/>
+      <c r="F1559" t="inlineStr"/>
+      <c r="G1559" t="inlineStr"/>
+      <c r="H1559" t="n">
+        <v>-0.009253851366151422</v>
+      </c>
+      <c r="I1559" t="n">
+        <v>-0.009253851366151422</v>
+      </c>
+      <c r="J1559" t="n">
+        <v>90.59418836958903</v>
+      </c>
+    </row>
+    <row r="1560">
+      <c r="A1560" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-25</t>
+        </is>
+      </c>
+      <c r="B1560" t="inlineStr">
+        <is>
+          <t>2022-07-25</t>
+        </is>
+      </c>
+      <c r="C1560" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1560" t="n">
+        <v>88.80000305175781</v>
+      </c>
+      <c r="E1560" t="inlineStr"/>
+      <c r="F1560" t="inlineStr"/>
+      <c r="G1560" t="inlineStr"/>
+      <c r="H1560" t="n">
+        <v>0.03677760034746935</v>
+      </c>
+      <c r="I1560" t="n">
+        <v>0.03677760034746935</v>
+      </c>
+      <c r="J1560" t="n">
+        <v>93.92602522324913</v>
+      </c>
+    </row>
+    <row r="1561">
+      <c r="A1561" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-26</t>
+        </is>
+      </c>
+      <c r="B1561" t="inlineStr">
+        <is>
+          <t>2022-07-26</t>
+        </is>
+      </c>
+      <c r="C1561" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1561" t="n">
+        <v>87.95999908447266</v>
+      </c>
+      <c r="E1561" t="inlineStr"/>
+      <c r="F1561" t="inlineStr"/>
+      <c r="G1561" t="inlineStr"/>
+      <c r="H1561" t="n">
+        <v>-0.00945950381100269</v>
+      </c>
+      <c r="I1561" t="n">
+        <v>-0.00945950381100269</v>
+      </c>
+      <c r="J1561" t="n">
+        <v>93.03753162969747</v>
+      </c>
+    </row>
+    <row r="1562">
+      <c r="A1562" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-27</t>
+        </is>
+      </c>
+      <c r="B1562" t="inlineStr">
+        <is>
+          <t>2022-07-27</t>
+        </is>
+      </c>
+      <c r="C1562" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1562" t="n">
+        <v>89.98000335693359</v>
+      </c>
+      <c r="E1562" t="inlineStr"/>
+      <c r="F1562" t="inlineStr"/>
+      <c r="G1562" t="inlineStr"/>
+      <c r="H1562" t="n">
+        <v>0.0229650328954758</v>
+      </c>
+      <c r="I1562" t="n">
+        <v>0.0229650328954758</v>
+      </c>
+      <c r="J1562" t="n">
+        <v>95.17414160408734</v>
+      </c>
+    </row>
+    <row r="1563">
+      <c r="A1563" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-28</t>
+        </is>
+      </c>
+      <c r="B1563" t="inlineStr">
+        <is>
+          <t>2022-07-28</t>
+        </is>
+      </c>
+      <c r="C1563" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1563" t="n">
+        <v>89.58999633789062</v>
+      </c>
+      <c r="E1563" t="inlineStr"/>
+      <c r="F1563" t="inlineStr"/>
+      <c r="G1563" t="inlineStr"/>
+      <c r="H1563" t="n">
+        <v>-0.004334374355331905</v>
+      </c>
+      <c r="I1563" t="n">
+        <v>-0.004334374355331905</v>
+      </c>
+      <c r="J1563" t="n">
+        <v>94.76162124542785</v>
+      </c>
+    </row>
+    <row r="1564">
+      <c r="A1564" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-29</t>
+        </is>
+      </c>
+      <c r="B1564" t="inlineStr">
+        <is>
+          <t>2022-07-29</t>
+        </is>
+      </c>
+      <c r="C1564" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1564" t="n">
+        <v>91.66000366210938</v>
+      </c>
+      <c r="E1564" t="inlineStr"/>
+      <c r="F1564" t="inlineStr"/>
+      <c r="G1564" t="inlineStr"/>
+      <c r="H1564" t="n">
+        <v>0.0231053399802772</v>
+      </c>
+      <c r="I1564" t="n">
+        <v>0.0231053399802772</v>
+      </c>
+      <c r="J1564" t="n">
+        <v>96.95112072138572</v>
+      </c>
+    </row>
+    <row r="1565">
+      <c r="A1565" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-01</t>
+        </is>
+      </c>
+      <c r="B1565" t="inlineStr">
+        <is>
+          <t>2022-08-01</t>
+        </is>
+      </c>
+      <c r="C1565" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1565" t="n">
+        <v>90.31999969482422</v>
+      </c>
+      <c r="E1565" t="inlineStr"/>
+      <c r="F1565" t="inlineStr"/>
+      <c r="G1565" t="inlineStr"/>
+      <c r="H1565" t="n">
+        <v>-0.01461928773453769</v>
+      </c>
+      <c r="I1565" t="n">
+        <v>-0.01461928773453769</v>
+      </c>
+      <c r="J1565" t="n">
+        <v>95.53376439137389</v>
+      </c>
+    </row>
+    <row r="1566">
+      <c r="A1566" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-02</t>
+        </is>
+      </c>
+      <c r="B1566" t="inlineStr">
+        <is>
+          <t>2022-08-02</t>
+        </is>
+      </c>
+      <c r="C1566" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1566" t="n">
+        <v>93.62000274658203</v>
+      </c>
+      <c r="E1566" t="inlineStr"/>
+      <c r="F1566" t="inlineStr"/>
+      <c r="G1566" t="inlineStr"/>
+      <c r="H1566" t="n">
+        <v>0.03653679210482674</v>
+      </c>
+      <c r="I1566" t="n">
+        <v>0.03653679210482674</v>
+      </c>
+      <c r="J1566" t="n">
+        <v>99.02426167993301</v>
+      </c>
+    </row>
+    <row r="1567">
+      <c r="A1567" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-03</t>
+        </is>
+      </c>
+      <c r="B1567" t="inlineStr">
+        <is>
+          <t>2022-08-03</t>
+        </is>
+      </c>
+      <c r="C1567" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1567" t="n">
+        <v>92.68000030517578</v>
+      </c>
+      <c r="E1567" t="inlineStr"/>
+      <c r="F1567" t="inlineStr"/>
+      <c r="G1567" t="inlineStr"/>
+      <c r="H1567" t="n">
+        <v>-0.01004061540086387</v>
+      </c>
+      <c r="I1567" t="n">
+        <v>-0.01004061540086387</v>
+      </c>
+      <c r="J1567" t="n">
+        <v>98.0299971530503</v>
+      </c>
+    </row>
+    <row r="1568">
+      <c r="A1568" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-04</t>
+        </is>
+      </c>
+      <c r="B1568" t="inlineStr">
+        <is>
+          <t>2022-08-04</t>
+        </is>
+      </c>
+      <c r="C1568" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1568" t="n">
+        <v>90.16999816894531</v>
+      </c>
+      <c r="E1568" t="inlineStr"/>
+      <c r="F1568" t="inlineStr"/>
+      <c r="G1568" t="inlineStr"/>
+      <c r="H1568" t="n">
+        <v>-0.02708245714248558</v>
+      </c>
+      <c r="I1568" t="n">
+        <v>-0.02708245714248558</v>
+      </c>
+      <c r="J1568" t="n">
+        <v>95.37510395647485</v>
+      </c>
+    </row>
+    <row r="1569">
+      <c r="A1569" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-05</t>
+        </is>
+      </c>
+      <c r="B1569" t="inlineStr">
+        <is>
+          <t>2022-08-05</t>
+        </is>
+      </c>
+      <c r="C1569" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1569" t="n">
+        <v>90.22000122070312</v>
+      </c>
+      <c r="E1569" t="inlineStr"/>
+      <c r="F1569" t="inlineStr"/>
+      <c r="G1569" t="inlineStr"/>
+      <c r="H1569" t="n">
+        <v>0.0005545420070223184</v>
+      </c>
+      <c r="I1569" t="n">
+        <v>0.0005545420070223184</v>
+      </c>
+      <c r="J1569" t="n">
+        <v>95.42799345804282</v>
+      </c>
+    </row>
+    <row r="1570">
+      <c r="A1570" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-08</t>
+        </is>
+      </c>
+      <c r="B1570" t="inlineStr">
+        <is>
+          <t>2022-08-08</t>
+        </is>
+      </c>
+      <c r="C1570" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1570" t="n">
+        <v>90.38999938964844</v>
+      </c>
+      <c r="E1570" t="inlineStr"/>
+      <c r="F1570" t="inlineStr"/>
+      <c r="G1570" t="inlineStr"/>
+      <c r="H1570" t="n">
+        <v>0.001884262543174309</v>
+      </c>
+      <c r="I1570" t="n">
+        <v>0.001884262543174309</v>
+      </c>
+      <c r="J1570" t="n">
+        <v>95.6078048516861</v>
+      </c>
+    </row>
+    <row r="1571">
+      <c r="A1571" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-09</t>
+        </is>
+      </c>
+      <c r="B1571" t="inlineStr">
+        <is>
+          <t>2022-08-09</t>
+        </is>
+      </c>
+      <c r="C1571" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1571" t="n">
+        <v>93.34999847412109</v>
+      </c>
+      <c r="E1571" t="inlineStr"/>
+      <c r="F1571" t="inlineStr"/>
+      <c r="G1571" t="inlineStr"/>
+      <c r="H1571" t="n">
+        <v>0.03274697537846905</v>
+      </c>
+      <c r="I1571" t="n">
+        <v>0.03274697537846905</v>
+      </c>
+      <c r="J1571" t="n">
+        <v>98.73867128315374</v>
+      </c>
+    </row>
+    <row r="1572">
+      <c r="A1572" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-10</t>
+        </is>
+      </c>
+      <c r="B1572" t="inlineStr">
+        <is>
+          <t>2022-08-10</t>
+        </is>
+      </c>
+      <c r="C1572" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1572" t="n">
+        <v>95.18000030517578</v>
+      </c>
+      <c r="E1572" t="inlineStr"/>
+      <c r="F1572" t="inlineStr"/>
+      <c r="G1572" t="inlineStr"/>
+      <c r="H1572" t="n">
+        <v>0.0196036621421265</v>
+      </c>
+      <c r="I1572" t="n">
+        <v>0.0196036621421265</v>
+      </c>
+      <c r="J1572" t="n">
+        <v>100.6743108353512</v>
+      </c>
+    </row>
+    <row r="1573">
+      <c r="A1573" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-11</t>
+        </is>
+      </c>
+      <c r="B1573" t="inlineStr">
+        <is>
+          <t>2022-08-11</t>
+        </is>
+      </c>
+      <c r="C1573" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1573" t="n">
+        <v>96.70999908447266</v>
+      </c>
+      <c r="E1573" t="inlineStr"/>
+      <c r="F1573" t="inlineStr"/>
+      <c r="G1573" t="inlineStr"/>
+      <c r="H1573" t="n">
+        <v>0.01607479275468826</v>
+      </c>
+      <c r="I1573" t="n">
+        <v>0.01607479275468826</v>
+      </c>
+      <c r="J1573" t="n">
+        <v>102.2926295177505</v>
+      </c>
+    </row>
+    <row r="1574">
+      <c r="A1574" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-12</t>
+        </is>
+      </c>
+      <c r="B1574" t="inlineStr">
+        <is>
+          <t>2022-08-12</t>
+        </is>
+      </c>
+      <c r="C1574" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1574" t="n">
+        <v>97.47000122070312</v>
+      </c>
+      <c r="E1574" t="inlineStr"/>
+      <c r="F1574" t="inlineStr"/>
+      <c r="G1574" t="inlineStr"/>
+      <c r="H1574" t="n">
+        <v>0.007858568332387517</v>
+      </c>
+      <c r="I1574" t="n">
+        <v>0.007858568332387517</v>
+      </c>
+      <c r="J1574" t="n">
+        <v>103.0965031367153</v>
+      </c>
+    </row>
+    <row r="1575">
+      <c r="A1575" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-15</t>
+        </is>
+      </c>
+      <c r="B1575" t="inlineStr">
+        <is>
+          <t>2022-08-15</t>
+        </is>
+      </c>
+      <c r="C1575" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1575" t="n">
+        <v>95.79000091552734</v>
+      </c>
+      <c r="E1575" t="inlineStr"/>
+      <c r="F1575" t="inlineStr"/>
+      <c r="G1575" t="inlineStr"/>
+      <c r="H1575" t="n">
+        <v>-0.01723607555284346</v>
+      </c>
+      <c r="I1575" t="n">
+        <v>-0.01723607555284346</v>
+      </c>
+      <c r="J1575" t="n">
+        <v>101.3195240194169</v>
+      </c>
+    </row>
+    <row r="1576">
+      <c r="A1576" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-16</t>
+        </is>
+      </c>
+      <c r="B1576" t="inlineStr">
+        <is>
+          <t>2022-08-16</t>
+        </is>
+      </c>
+      <c r="C1576" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1576" t="n">
+        <v>96.65000152587891</v>
+      </c>
+      <c r="E1576" t="inlineStr"/>
+      <c r="F1576" t="inlineStr"/>
+      <c r="G1576" t="inlineStr"/>
+      <c r="H1576" t="n">
+        <v>0.008977978934460618</v>
+      </c>
+      <c r="I1576" t="n">
+        <v>0.008977978934460618</v>
+      </c>
+      <c r="J1576" t="n">
+        <v>102.2291685717128</v>
+      </c>
+    </row>
+    <row r="1577">
+      <c r="A1577" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-17</t>
+        </is>
+      </c>
+      <c r="B1577" t="inlineStr">
+        <is>
+          <t>2022-08-17</t>
+        </is>
+      </c>
+      <c r="C1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1577" t="n">
+        <v>98.62000274658203</v>
+      </c>
+      <c r="E1577" t="inlineStr"/>
+      <c r="F1577" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1577" t="inlineStr"/>
+      <c r="H1577" t="n">
+        <v>0.02038283693327858</v>
+      </c>
+      <c r="I1577" t="n">
+        <v>0.02038283693327858</v>
+      </c>
+      <c r="J1577" t="n">
+        <v>104.3128890445347</v>
+      </c>
+    </row>
+    <row r="1578">
+      <c r="A1578" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-18</t>
+        </is>
+      </c>
+      <c r="B1578" t="inlineStr">
+        <is>
+          <t>2022-08-18</t>
+        </is>
+      </c>
+      <c r="C1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1578" t="n">
+        <v>100.7900009155273</v>
+      </c>
+      <c r="E1578" t="inlineStr"/>
+      <c r="F1578" t="inlineStr"/>
+      <c r="G1578" t="inlineStr"/>
+      <c r="H1578" t="n">
+        <v>0.02200363119560467</v>
+      </c>
+      <c r="I1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1578" t="n">
+        <v>104.3128890445347</v>
+      </c>
+    </row>
+    <row r="1579">
+      <c r="A1579" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-19</t>
+        </is>
+      </c>
+      <c r="B1579" t="inlineStr">
+        <is>
+          <t>2022-08-19</t>
+        </is>
+      </c>
+      <c r="C1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1579" t="n">
+        <v>100.4499969482422</v>
+      </c>
+      <c r="E1579" t="inlineStr"/>
+      <c r="F1579" t="inlineStr"/>
+      <c r="G1579" t="inlineStr"/>
+      <c r="H1579" t="n">
+        <v>-0.003373389862057041</v>
+      </c>
+      <c r="I1579" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1579" t="n">
+        <v>104.3128890445347</v>
+      </c>
+    </row>
+    <row r="1580">
+      <c r="A1580" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-22</t>
+        </is>
+      </c>
+      <c r="B1580" t="inlineStr">
+        <is>
+          <t>2022-08-22</t>
+        </is>
+      </c>
+      <c r="C1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1580" t="n">
+        <v>100.4199981689453</v>
+      </c>
+      <c r="E1580" t="inlineStr"/>
+      <c r="F1580" t="inlineStr"/>
+      <c r="G1580" t="inlineStr"/>
+      <c r="H1580" t="n">
+        <v>-0.0002986439045122857</v>
+      </c>
+      <c r="I1580" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1580" t="n">
+        <v>104.3128890445347</v>
+      </c>
+    </row>
+    <row r="1581">
+      <c r="A1581" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-23</t>
+        </is>
+      </c>
+      <c r="B1581" t="inlineStr">
+        <is>
+          <t>2022-08-23</t>
+        </is>
+      </c>
+      <c r="C1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1581" t="n">
+        <v>103.4899978637695</v>
+      </c>
+      <c r="E1581" t="inlineStr"/>
+      <c r="F1581" t="inlineStr"/>
+      <c r="G1581" t="inlineStr"/>
+      <c r="H1581" t="n">
+        <v>0.03057159680145882</v>
+      </c>
+      <c r="I1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1581" t="n">
+        <v>104.3128890445347</v>
+      </c>
+    </row>
+    <row r="1582">
+      <c r="A1582" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-24</t>
+        </is>
+      </c>
+      <c r="B1582" t="inlineStr">
+        <is>
+          <t>2022-08-24</t>
+        </is>
+      </c>
+      <c r="C1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1582" t="n">
+        <v>104.7799987792969</v>
+      </c>
+      <c r="E1582" t="inlineStr"/>
+      <c r="F1582" t="inlineStr"/>
+      <c r="G1582" t="inlineStr"/>
+      <c r="H1582" t="n">
+        <v>0.0124649815649378</v>
+      </c>
+      <c r="I1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1582" t="n">
+        <v>104.3128890445347</v>
+      </c>
+    </row>
+    <row r="1583">
+      <c r="A1583" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-25</t>
+        </is>
+      </c>
+      <c r="B1583" t="inlineStr">
+        <is>
+          <t>2022-08-25</t>
+        </is>
+      </c>
+      <c r="C1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1583" t="n">
+        <v>105.9700012207031</v>
+      </c>
+      <c r="E1583" t="inlineStr"/>
+      <c r="F1583" t="inlineStr"/>
+      <c r="G1583" t="inlineStr"/>
+      <c r="H1583" t="n">
+        <v>0.01135715265575454</v>
+      </c>
+      <c r="I1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1583" t="n">
+        <v>104.3128890445347</v>
+      </c>
+    </row>
+    <row r="1584">
+      <c r="A1584" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-26</t>
+        </is>
+      </c>
+      <c r="B1584" t="inlineStr">
+        <is>
+          <t>2022-08-26</t>
+        </is>
+      </c>
+      <c r="C1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1584" t="n">
+        <v>104.3399963378906</v>
+      </c>
+      <c r="E1584" t="inlineStr"/>
+      <c r="F1584" t="inlineStr"/>
+      <c r="G1584" t="inlineStr"/>
+      <c r="H1584" t="n">
+        <v>-0.01538175770535</v>
+      </c>
+      <c r="I1584" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1584" t="n">
+        <v>104.3128890445347</v>
+      </c>
+    </row>
+    <row r="1585">
+      <c r="A1585" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-29</t>
+        </is>
+      </c>
+      <c r="B1585" t="inlineStr">
+        <is>
+          <t>2022-08-29</t>
+        </is>
+      </c>
+      <c r="C1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1585" t="n">
+        <v>105</v>
+      </c>
+      <c r="E1585" t="inlineStr"/>
+      <c r="F1585" t="inlineStr"/>
+      <c r="G1585" t="inlineStr"/>
+      <c r="H1585" t="n">
+        <v>0.006325509730439771</v>
+      </c>
+      <c r="I1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1585" t="n">
+        <v>104.3128890445347</v>
+      </c>
+    </row>
+    <row r="1586">
+      <c r="A1586" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-30</t>
+        </is>
+      </c>
+      <c r="B1586" t="inlineStr">
+        <is>
+          <t>2022-08-30</t>
+        </is>
+      </c>
+      <c r="C1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1586" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="E1586" t="inlineStr"/>
+      <c r="F1586" t="inlineStr"/>
+      <c r="G1586" t="inlineStr"/>
+      <c r="H1586" t="n">
+        <v>-0.03333333333333333</v>
+      </c>
+      <c r="I1586" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1586" t="n">
+        <v>104.3128890445347</v>
+      </c>
+    </row>
+    <row r="1587">
+      <c r="A1587" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-31</t>
+        </is>
+      </c>
+      <c r="B1587" t="inlineStr">
+        <is>
+          <t>2022-08-31</t>
+        </is>
+      </c>
+      <c r="C1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1587" t="n">
+        <v>100.75</v>
+      </c>
+      <c r="E1587" t="inlineStr"/>
+      <c r="F1587" t="inlineStr"/>
+      <c r="G1587" t="inlineStr"/>
+      <c r="H1587" t="n">
+        <v>-0.007389162561576401</v>
+      </c>
+      <c r="I1587" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1587" t="n">
+        <v>104.3128890445347</v>
+      </c>
+    </row>
+    <row r="1588">
+      <c r="A1588" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-01</t>
+        </is>
+      </c>
+      <c r="B1588" t="inlineStr">
+        <is>
+          <t>2022-09-01</t>
+        </is>
+      </c>
+      <c r="C1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1588" t="n">
+        <v>96.76000213623047</v>
+      </c>
+      <c r="E1588" t="inlineStr"/>
+      <c r="F1588" t="inlineStr"/>
+      <c r="G1588" t="inlineStr"/>
+      <c r="H1588" t="n">
+        <v>-0.03960295646421375</v>
+      </c>
+      <c r="I1588" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1588" t="n">
+        <v>104.3128890445347</v>
+      </c>
+    </row>
+    <row r="1589">
+      <c r="A1589" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-02</t>
+        </is>
+      </c>
+      <c r="B1589" t="inlineStr">
+        <is>
+          <t>2022-09-02</t>
+        </is>
+      </c>
+      <c r="C1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1589" t="n">
+        <v>99.12999725341797</v>
+      </c>
+      <c r="E1589" t="inlineStr"/>
+      <c r="F1589" t="inlineStr"/>
+      <c r="G1589" t="inlineStr"/>
+      <c r="H1589" t="n">
+        <v>0.02449354138966164</v>
+      </c>
+      <c r="I1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1589" t="n">
+        <v>104.3128890445347</v>
+      </c>
+    </row>
+    <row r="1590">
+      <c r="A1590" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-06</t>
+        </is>
+      </c>
+      <c r="B1590" t="inlineStr">
+        <is>
+          <t>2022-09-06</t>
+        </is>
+      </c>
+      <c r="C1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1590" t="n">
+        <v>98.45999908447266</v>
+      </c>
+      <c r="E1590" t="inlineStr"/>
+      <c r="F1590" t="inlineStr"/>
+      <c r="G1590" t="inlineStr"/>
+      <c r="H1590" t="n">
+        <v>-0.006758783289709136</v>
+      </c>
+      <c r="I1590" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1590" t="n">
+        <v>104.3128890445347</v>
+      </c>
+    </row>
+    <row r="1591">
+      <c r="A1591" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-07</t>
+        </is>
+      </c>
+      <c r="B1591" t="inlineStr">
+        <is>
+          <t>2022-09-07</t>
+        </is>
+      </c>
+      <c r="C1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1591" t="n">
+        <v>98.33999633789062</v>
+      </c>
+      <c r="E1591" t="inlineStr"/>
+      <c r="F1591" t="inlineStr"/>
+      <c r="G1591" t="inlineStr"/>
+      <c r="H1591" t="n">
+        <v>-0.001218796950008816</v>
+      </c>
+      <c r="I1591" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1591" t="n">
+        <v>104.3128890445347</v>
+      </c>
+    </row>
+    <row r="1592">
+      <c r="A1592" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+      <c r="B1592" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+      <c r="C1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1592" t="n">
+        <v>98.44999694824219</v>
+      </c>
+      <c r="E1592" t="inlineStr"/>
+      <c r="F1592" t="inlineStr"/>
+      <c r="G1592" t="inlineStr"/>
+      <c r="H1592" t="n">
+        <v>0.001118574480861279</v>
+      </c>
+      <c r="I1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1592" t="n">
+        <v>104.3128890445347</v>
+      </c>
+    </row>
+    <row r="1593">
+      <c r="A1593" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-09</t>
+        </is>
+      </c>
+      <c r="B1593" t="inlineStr">
+        <is>
+          <t>2022-09-09</t>
+        </is>
+      </c>
+      <c r="C1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1593" t="n">
+        <v>100.0100021362305</v>
+      </c>
+      <c r="E1593" t="inlineStr"/>
+      <c r="F1593" t="inlineStr"/>
+      <c r="G1593" t="inlineStr"/>
+      <c r="H1593" t="n">
+        <v>0.01584566009492527</v>
+      </c>
+      <c r="I1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1593" t="n">
+        <v>104.3128890445347</v>
+      </c>
+    </row>
+    <row r="1594">
+      <c r="A1594" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-12</t>
+        </is>
+      </c>
+      <c r="B1594" t="inlineStr">
+        <is>
+          <t>2022-09-12</t>
+        </is>
+      </c>
+      <c r="C1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1594" t="n">
+        <v>99.94000244140625</v>
+      </c>
+      <c r="E1594" t="inlineStr"/>
+      <c r="F1594" t="inlineStr"/>
+      <c r="G1594" t="inlineStr"/>
+      <c r="H1594" t="n">
+        <v>-0.0006999269405960629</v>
+      </c>
+      <c r="I1594" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1594" t="n">
+        <v>104.3128890445347</v>
+      </c>
+    </row>
+    <row r="1595">
+      <c r="A1595" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+      <c r="B1595" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+      <c r="C1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1595" t="n">
+        <v>97.65000152587891</v>
+      </c>
+      <c r="E1595" t="inlineStr"/>
+      <c r="F1595" t="inlineStr"/>
+      <c r="G1595" t="inlineStr"/>
+      <c r="H1595" t="n">
+        <v>-0.02291375684996555</v>
+      </c>
+      <c r="I1595" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1595" t="n">
+        <v>104.3128890445347</v>
+      </c>
+    </row>
+    <row r="1596">
+      <c r="A1596" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-14</t>
+        </is>
+      </c>
+      <c r="B1596" t="inlineStr">
+        <is>
+          <t>2022-09-14</t>
+        </is>
+      </c>
+      <c r="C1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1596" t="n">
+        <v>98.31999969482422</v>
+      </c>
+      <c r="E1596" t="inlineStr"/>
+      <c r="F1596" t="inlineStr"/>
+      <c r="G1596" t="inlineStr"/>
+      <c r="H1596" t="n">
+        <v>0.0068612202608902</v>
+      </c>
+      <c r="I1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1596" t="n">
+        <v>104.3128890445347</v>
+      </c>
+    </row>
+    <row r="1597">
+      <c r="A1597" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+      <c r="B1597" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+      <c r="C1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1597" t="n">
+        <v>96.13999938964844</v>
+      </c>
+      <c r="E1597" t="inlineStr"/>
+      <c r="F1597" t="inlineStr"/>
+      <c r="G1597" t="inlineStr"/>
+      <c r="H1597" t="n">
+        <v>-0.02217250113855052</v>
+      </c>
+      <c r="I1597" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1597" t="n">
+        <v>104.3128890445347</v>
+      </c>
+    </row>
+    <row r="1598">
+      <c r="A1598" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+      <c r="B1598" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+      <c r="C1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1598" t="n">
+        <v>95.65000152587891</v>
+      </c>
+      <c r="E1598" t="inlineStr"/>
+      <c r="F1598" t="inlineStr"/>
+      <c r="G1598" t="inlineStr"/>
+      <c r="H1598" t="n">
+        <v>-0.005096711742046178</v>
+      </c>
+      <c r="I1598" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1598" t="n">
+        <v>104.3128890445347</v>
+      </c>
+    </row>
+    <row r="1599">
+      <c r="A1599" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+      <c r="B1599" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+      <c r="C1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1599" t="n">
+        <v>96.30000305175781</v>
+      </c>
+      <c r="E1599" t="inlineStr"/>
+      <c r="F1599" t="inlineStr"/>
+      <c r="G1599" t="inlineStr"/>
+      <c r="H1599" t="n">
+        <v>0.006795624835437497</v>
+      </c>
+      <c r="I1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1599" t="n">
+        <v>104.3128890445347</v>
+      </c>
+    </row>
+    <row r="1600">
+      <c r="A1600" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-20</t>
+        </is>
+      </c>
+      <c r="B1600" t="inlineStr">
+        <is>
+          <t>2022-09-20</t>
+        </is>
+      </c>
+      <c r="C1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1600" t="n">
+        <v>97.19999694824219</v>
+      </c>
+      <c r="E1600" t="inlineStr"/>
+      <c r="F1600" t="inlineStr"/>
+      <c r="G1600" t="inlineStr"/>
+      <c r="H1600" t="n">
+        <v>0.009345730716131539</v>
+      </c>
+      <c r="I1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1600" t="n">
+        <v>104.3128890445347</v>
+      </c>
+    </row>
+    <row r="1601">
+      <c r="A1601" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-21</t>
+        </is>
+      </c>
+      <c r="B1601" t="inlineStr">
+        <is>
+          <t>2022-09-21</t>
+        </is>
+      </c>
+      <c r="C1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1601" t="n">
+        <v>94.66999816894531</v>
+      </c>
+      <c r="E1601" t="inlineStr"/>
+      <c r="F1601" t="inlineStr"/>
+      <c r="G1601" t="inlineStr"/>
+      <c r="H1601" t="n">
+        <v>-0.02602879484290588</v>
+      </c>
+      <c r="I1601" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1601" t="n">
+        <v>104.3128890445347</v>
+      </c>
+    </row>
+    <row r="1602">
+      <c r="A1602" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-22</t>
+        </is>
+      </c>
+      <c r="B1602" t="inlineStr">
+        <is>
+          <t>2022-09-22</t>
+        </is>
+      </c>
+      <c r="C1602" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1602" t="n">
+        <v>95.98000335693359</v>
+      </c>
+      <c r="E1602" t="inlineStr"/>
+      <c r="F1602" t="inlineStr"/>
+      <c r="G1602" t="inlineStr"/>
+      <c r="H1602" t="n">
+        <v>0.01383759600005985</v>
+      </c>
+      <c r="I1602" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1602" t="n">
+        <v>104.3128890445347</v>
+      </c>
+    </row>
+    <row r="1603">
+      <c r="A1603" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-23</t>
+        </is>
+      </c>
+      <c r="B1603" t="inlineStr">
+        <is>
+          <t>2022-09-23</t>
+        </is>
+      </c>
+      <c r="C1603" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1603" t="n">
+        <v>91.44999694824219</v>
+      </c>
+      <c r="E1603" t="inlineStr"/>
+      <c r="F1603" t="inlineStr"/>
+      <c r="G1603" t="n">
+        <v>11.51394471134972</v>
+      </c>
+      <c r="H1603" t="n">
+        <v>-0.04719739789802957</v>
+      </c>
+      <c r="I1603" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1603" t="n">
+        <v>104.3128890445347</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
